--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_2_35.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_2_35.xlsx
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>30444.73951963684</v>
+        <v>1919760.473541844</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>30444.73951963684</v>
+        <v>1919760.473541844</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1341390971.842764</v>
+        <v>52589489.17656387</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>11911.9673222008</v>
+        <v>1135930.423979626</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>23627.59943339488</v>
+        <v>2237885.334270645</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>35343.23154458895</v>
+        <v>3339840.244561667</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>48280.7366106247</v>
+        <v>4375588.191898501</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>61218.24167666041</v>
+        <v>5411336.139235334</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>74155.74674269611</v>
+        <v>6447084.086572164</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>87093.25180873182</v>
+        <v>7482832.033908992</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>100030.7568747676</v>
+        <v>8518579.981245819</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>112968.2619408033</v>
+        <v>9554327.928582646</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>125046.1564024587</v>
+        <v>10631577.46604553</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>136891.1944088635</v>
+        <v>11733532.37633655</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>148736.2324152682</v>
+        <v>12835487.28662758</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>160581.2704216729</v>
+        <v>13937442.19691861</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>173531.014650696</v>
+        <v>14972219.86626783</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>187579.8123599597</v>
+        <v>15891383.00231427</v>
       </c>
     </row>
   </sheetData>
